--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_24__Reeval_LHS_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_24__Reeval_LHS_Modell_1.2.xlsx
@@ -5876,7 +5876,7 @@
                   <c:v>57.14900970458984</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.15571975708008</c:v>
+                  <c:v>55.15572738647461</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>31.76228904724121</c:v>
@@ -5885,19 +5885,19 @@
                   <c:v>63.12326812744141</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.85505485534668</c:v>
+                  <c:v>26.85506057739258</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59.80168533325195</c:v>
+                  <c:v>59.80168151855469</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.52565002441406</c:v>
+                  <c:v>55.52565765380859</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>57.77449798583984</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.12909698486328</c:v>
+                  <c:v>60.12910079956055</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>58.59881591796875</c:v>
@@ -5906,10 +5906,10 @@
                   <c:v>31.84255790710449</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>57.93781280517578</c:v>
+                  <c:v>57.93780517578125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74.07246398925781</c:v>
+                  <c:v>74.07245635986328</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>40.87253189086914</c:v>
@@ -5918,73 +5918,73 @@
                   <c:v>58.57415390014648</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42.28429794311523</c:v>
+                  <c:v>42.2843017578125</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.01168441772461</c:v>
+                  <c:v>23.01169013977051</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>51.91545486450195</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40.08401489257812</c:v>
+                  <c:v>40.08402252197266</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>57.21490478515625</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49.72691345214844</c:v>
+                  <c:v>49.72690963745117</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>49.42055130004883</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>60.4674072265625</c:v>
+                  <c:v>60.46740341186523</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>30.6474437713623</c:v>
+                  <c:v>30.64743804931641</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>60.02306365966797</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>60.62125015258789</c:v>
+                  <c:v>60.62125778198242</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>50.53715896606445</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>50.74136734008789</c:v>
+                  <c:v>50.74135589599609</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>65.25942230224609</c:v>
+                  <c:v>65.25942993164062</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>57.89380645751953</c:v>
+                  <c:v>57.893798828125</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>25.32027816772461</c:v>
+                  <c:v>25.32028388977051</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>58.69068908691406</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>52.20322799682617</c:v>
+                  <c:v>52.20323181152344</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>59.04472351074219</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>61.40259170532227</c:v>
+                  <c:v>61.40260314941406</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>64.43288421630859</c:v>
+                  <c:v>64.43287658691406</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>59.15059661865234</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>58.26879119873047</c:v>
+                  <c:v>58.26877975463867</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>58.08058929443359</c:v>
@@ -5993,7 +5993,7 @@
                   <c:v>45.17288208007812</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.918242454528809</c:v>
+                  <c:v>5.918230533599854</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>34.80965423583984</c:v>
@@ -6008,16 +6008,16 @@
                   <c:v>49.90944671630859</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>52.76992034912109</c:v>
+                  <c:v>52.76990509033203</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>13.96504306793213</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>54.19442749023438</c:v>
+                  <c:v>54.19441604614258</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>56.92666244506836</c:v>
+                  <c:v>56.92665863037109</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>54.69191360473633</c:v>
@@ -6026,58 +6026,58 @@
                   <c:v>55.38295364379883</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>50.15952682495117</c:v>
+                  <c:v>50.15951919555664</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>66.74167633056641</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>55.5939826965332</c:v>
+                  <c:v>55.59399032592773</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>53.13816452026367</c:v>
+                  <c:v>53.13815689086914</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>50.81840896606445</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>54.12610626220703</c:v>
+                  <c:v>54.12610244750977</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>58.40804290771484</c:v>
+                  <c:v>58.40803527832031</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>64.18750762939453</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>48.26480484008789</c:v>
+                  <c:v>48.26479721069336</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>39.67539215087891</c:v>
+                  <c:v>39.6754035949707</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>49.1452751159668</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>57.10577392578125</c:v>
+                  <c:v>57.10576248168945</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>53.63223266601562</c:v>
+                  <c:v>53.63222503662109</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>55.03924942016602</c:v>
+                  <c:v>55.03925704956055</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>55.61040878295898</c:v>
+                  <c:v>55.61041259765625</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>60.12270355224609</c:v>
+                  <c:v>60.12269592285156</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>58.74641799926758</c:v>
+                  <c:v>58.74642944335938</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>57.00167846679688</c:v>
+                  <c:v>57.00168228149414</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>58.53163528442383</c:v>
@@ -6086,25 +6086,25 @@
                   <c:v>59.87475967407227</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>55.05820083618164</c:v>
+                  <c:v>55.05819320678711</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>54.65107345581055</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>54.33335113525391</c:v>
+                  <c:v>54.33334732055664</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>59.26925277709961</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>56.80387115478516</c:v>
+                  <c:v>56.80385971069336</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>37.56561279296875</c:v>
+                  <c:v>37.56562042236328</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>58.98113250732422</c:v>
+                  <c:v>58.98112869262695</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>55.91934967041016</c:v>
@@ -6119,10 +6119,10 @@
                   <c:v>89.14259338378906</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>59.905517578125</c:v>
+                  <c:v>59.90552139282227</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>58.42499542236328</c:v>
+                  <c:v>58.42498397827148</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>55.31555557250977</c:v>
@@ -6134,10 +6134,10 @@
                   <c:v>56.87285614013672</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>48.33499526977539</c:v>
+                  <c:v>48.33500671386719</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>55.22219467163086</c:v>
+                  <c:v>55.22220230102539</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>60.05377197265625</c:v>
@@ -6146,25 +6146,25 @@
                   <c:v>52.4194221496582</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>40.58615875244141</c:v>
+                  <c:v>40.58616638183594</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>57.04140090942383</c:v>
+                  <c:v>57.0413932800293</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>59.68485260009766</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>60.49456787109375</c:v>
+                  <c:v>60.49454879760742</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>55.71627807617188</c:v>
+                  <c:v>55.71628189086914</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>40.10136032104492</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>28.08585357666016</c:v>
+                  <c:v>28.08584785461426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6891,7 +6891,7 @@
         <v>81.04689999999999</v>
       </c>
       <c r="F3">
-        <v>55.15571975708008</v>
+        <v>55.15572738647461</v>
       </c>
       <c r="G3">
         <v>99</v>
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.85505485534668</v>
+        <v>26.85506057739258</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>59.80168533325195</v>
+        <v>59.80168151855469</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -7051,7 +7051,7 @@
         <v>97.0509</v>
       </c>
       <c r="F8">
-        <v>55.52565002441406</v>
+        <v>55.52565765380859</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>94.1598</v>
       </c>
       <c r="F10">
-        <v>60.12909698486328</v>
+        <v>60.12910079956055</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>98.44929999999999</v>
       </c>
       <c r="F13">
-        <v>57.93781280517578</v>
+        <v>57.93780517578125</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>96.46769999999999</v>
       </c>
       <c r="F14">
-        <v>74.07246398925781</v>
+        <v>74.07245635986328</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>34.5547</v>
       </c>
       <c r="F17">
-        <v>42.28429794311523</v>
+        <v>42.2843017578125</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>79.6208</v>
       </c>
       <c r="F18">
-        <v>23.01168441772461</v>
+        <v>23.01169013977051</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>94.2979</v>
       </c>
       <c r="F20">
-        <v>40.08401489257812</v>
+        <v>40.08402252197266</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>98.35980000000001</v>
       </c>
       <c r="F22">
-        <v>49.72691345214844</v>
+        <v>49.72690963745117</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>48.1493</v>
       </c>
       <c r="F24">
-        <v>60.4674072265625</v>
+        <v>60.46740341186523</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>92.7298</v>
       </c>
       <c r="F25">
-        <v>30.6474437713623</v>
+        <v>30.64743804931641</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>97.9389</v>
       </c>
       <c r="F27">
-        <v>60.62125015258789</v>
+        <v>60.62125778198242</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>50.74136734008789</v>
+        <v>50.74135589599609</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>98.30370000000001</v>
       </c>
       <c r="F30">
-        <v>65.25942230224609</v>
+        <v>65.25942993164062</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>87.8788</v>
       </c>
       <c r="F31">
-        <v>57.89380645751953</v>
+        <v>57.893798828125</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>88.6494</v>
       </c>
       <c r="F32">
-        <v>25.32027816772461</v>
+        <v>25.32028388977051</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>52.20322799682617</v>
+        <v>52.20323181152344</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>61.40259170532227</v>
+        <v>61.40260314941406</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>64.43288421630859</v>
+        <v>64.43287658691406</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>95.8798</v>
       </c>
       <c r="F39">
-        <v>58.26879119873047</v>
+        <v>58.26877975463867</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>91.2435</v>
       </c>
       <c r="F42">
-        <v>5.918242454528809</v>
+        <v>5.918230533599854</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>52.76992034912109</v>
+        <v>52.76990509033203</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>91.9205</v>
       </c>
       <c r="F49">
-        <v>54.19442749023438</v>
+        <v>54.19441604614258</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>88.3647</v>
       </c>
       <c r="F50">
-        <v>56.92666244506836</v>
+        <v>56.92665863037109</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>97.9697</v>
       </c>
       <c r="F53">
-        <v>50.15952682495117</v>
+        <v>50.15951919555664</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>92.267</v>
       </c>
       <c r="F55">
-        <v>55.5939826965332</v>
+        <v>55.59399032592773</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>63.5626</v>
       </c>
       <c r="F56">
-        <v>53.13816452026367</v>
+        <v>53.13815689086914</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>54.12610626220703</v>
+        <v>54.12610244750977</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>98.1859</v>
       </c>
       <c r="F59">
-        <v>58.40804290771484</v>
+        <v>58.40803527832031</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>94.23860000000001</v>
       </c>
       <c r="F61">
-        <v>48.26480484008789</v>
+        <v>48.26479721069336</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>93.1279</v>
       </c>
       <c r="F62">
-        <v>39.67539215087891</v>
+        <v>39.6754035949707</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>93.4151</v>
       </c>
       <c r="F64">
-        <v>57.10577392578125</v>
+        <v>57.10576248168945</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>53.63223266601562</v>
+        <v>53.63222503662109</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>55.03924942016602</v>
+        <v>55.03925704956055</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>55.61040878295898</v>
+        <v>55.61041259765625</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>60.12270355224609</v>
+        <v>60.12269592285156</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>58.74641799926758</v>
+        <v>58.74642944335938</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>97.982</v>
       </c>
       <c r="F70">
-        <v>57.00167846679688</v>
+        <v>57.00168228149414</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>55.05820083618164</v>
+        <v>55.05819320678711</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>89.6328</v>
       </c>
       <c r="F75">
-        <v>54.33335113525391</v>
+        <v>54.33334732055664</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>84.90900000000001</v>
       </c>
       <c r="F77">
-        <v>56.80387115478516</v>
+        <v>56.80385971069336</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>71.7201</v>
       </c>
       <c r="F78">
-        <v>37.56561279296875</v>
+        <v>37.56562042236328</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>97.88209999999999</v>
       </c>
       <c r="F79">
-        <v>58.98113250732422</v>
+        <v>58.98112869262695</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>36.4333</v>
       </c>
       <c r="F84">
-        <v>59.905517578125</v>
+        <v>59.90552139282227</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>93.43989999999999</v>
       </c>
       <c r="F85">
-        <v>58.42499542236328</v>
+        <v>58.42498397827148</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>94.4674</v>
       </c>
       <c r="F89">
-        <v>48.33499526977539</v>
+        <v>48.33500671386719</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>55.22219467163086</v>
+        <v>55.22220230102539</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>97.4933</v>
       </c>
       <c r="F93">
-        <v>40.58615875244141</v>
+        <v>40.58616638183594</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>92.3792</v>
       </c>
       <c r="F94">
-        <v>57.04140090942383</v>
+        <v>57.0413932800293</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>40.7372</v>
       </c>
       <c r="F96">
-        <v>60.49456787109375</v>
+        <v>60.49454879760742</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>55.71627807617188</v>
+        <v>55.71628189086914</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>83.20180000000001</v>
       </c>
       <c r="F99">
-        <v>28.08585357666016</v>
+        <v>28.08584785461426</v>
       </c>
     </row>
     <row r="100" spans="1:6">
